--- a/biology/Botanique/Patima/Patima.xlsx
+++ b/biology/Botanique/Patima/Patima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima est un genre de plantes à fleurs néotropicale, appartenant à la famille des Rubiaceae, comptant 3 à 5 espèces, et dont l'espèce type est Patima guianensis Aubl.. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima regroupe des arbustes à tiges dressées, cylindriques, creuses aux entrenœuds. Les stipules interpetiolaires sont connées à la base, persistantes.
 Les inflorescences sont axillaires, en ombelles congestives, ébractées.
@@ -519,7 +533,7 @@
 La corolle est infundibuliforme, avec le tube glabre abaxialement, densément villeux à la base adaxialement, les lobes acuminés, valvés en bouton.
 Les étamines ont leurs anthères dorsifixes.
 L'ovaire est à 5 loges, avec de nombreux ovules par loge, disposés horizontalement sur des placentas charnus.
-Les fruits sont bacciformes, à 5 loges, à calices persistants. Les graines sont nombreuses, minuscules[2]. 
+Les fruits sont bacciformes, à 5 loges, à calices persistants. Les graines sont nombreuses, minuscules. 
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Patima est un genre néotropical représenté seulement sur le plateau des Guyanes, au Guyana, au Suriname, en Guyane, et au Brésil.
 </t>
@@ -579,13 +595,15 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (25 mai 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (25 mai 2024) :
 Patima forsythii DC.
 Patima guianensis Aubl.
 Patima minor C.M.Taylor
-Selon Tropicos                                           (25 mai 2024)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 mai 2024) (Attention liste brute contenant possiblement des synonymes) :
 Patima formicaria I.M. Johnst., 1924
 Patima forsythii DC., 1830
 Patima guianensis Aubl., 1775
@@ -619,9 +637,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « PATIMA. (Tabula 77.) 
 CAL. Perianthium monophyllum ; limbo integro, ſubquinque-ſinuato.
 COR. . . .
